--- a/biology/Botanique/Paphinia_levyae/Paphinia_levyae.xlsx
+++ b/biology/Botanique/Paphinia_levyae/Paphinia_levyae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia levyae est une espèce de plantes à fleurs de la familles des Orchidaceae (les orchidées) et appartenant à la sous-tribu des Stanhopeinae.
 Fleurs d’un roux flamboyant marginées de blanc. Sépales rayés de blanc. Paphinia levyae est l’unique espèce du genre Paphinia à présenter une paire de lamelles presque à angle droit à la naissance du labelle.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom donné en hommage à Ralph Levy Jr., orchidophile américain, pour ses efforts de propagation des orchidées sauvages par reproduction in vitro. Ralph Levy maintient à Memphis, Tennessee, la plus importante collection américaine de Paphinia.
 </t>
@@ -543,7 +557,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Planta epiphytica; pseudobulbis elliptico-ovoideis, 5.5 cm altis; foliis plicatis, linerari-oblanceolatis, utrinque attenuatis, breviter petiolatis,princepaliter 3-nervatis, usque ad 22 cm longis, 2.5 cm latis; inflorescentiis arcuatis, laxe 3-floris; bracteis ovato-lanceolatis, acuminatis, quam ovaris pedicellatis multo brevioribus ; floribus speciosis; sepalis petalisque patentibus, ferrugineo-igneis, margine albis, sepalis in centro transverse albo-lineatis ; sepalo postico anguste ovato-lanceolato, sursum valde attenuato, acuto, 63 mm longo, 17 mm lato ; sepalis lateralibus inter se brevissime (2-3 mm) connatis, oblique ovato-lanceolatis, apicem versus sensim flacato-attenuatis, 62 mm longis, 15 mm latis ; petalis e cuneata basi rhombeo-lanceolatis, acutis, 50 mm longis, 18 mm latis ; labello porrecto, hypochilio utrinque triangulo-falcato, suberecto, valde carnoso, ad basin lamellis 2, quadro-oblongis et filis 2 superpositis ornato, 8 mm longo, epichilio e cuneata basi sagittato, apice rotundato, utrinque oblique triangulo, ferrugineo, toto disco verrucoso, ad basin epichilii callo caronoso, biantennato ornato, apicem versus margine clavato-ciliato, toto labello 20 mm longo, inter lobos hypochilii explanato 22 mm lato ; columna leviter arcuata, supra alata, alis basin versus decurrentibus, non angulatis, 20 mm longa, pede ascendenti, 7 mm longo ; ovario pedicellato furfuraceo, 4 cm longo.
 Garay. Harvard Papers in Botany 4(1): 311, f. 7b. 1999.</t>
@@ -574,7 +590,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante type a été découverte dans la région de Lita, dans la province équatorienne de Carachi.
 </t>
@@ -605,7 +623,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune information disponible.
 </t>
